--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PsylvestrisQpet_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PsylvestrisQpet_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,42 +457,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
         <v>42</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>68</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>575.6457452808197</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20.57666816666667</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>26.36377506088833</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-2.633290770855483</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>42.77518370454592</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>36.54283560118278</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>35.22089900144748</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>33.4330589936094</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>32.07312611463682</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>30.61180677174088</v>
       </c>
     </row>
@@ -503,39 +511,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
         <v>42</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>616.9552949544494</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>11.01989238888889</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15.55223813085124</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.600306680758066</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>42.19871442344404</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>29.61849128356445</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>28.08596354741911</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>27.18024681757616</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>26.34807874129765</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>24.92615533847865</v>
       </c>
     </row>
@@ -551,39 +562,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>962.0032115776785</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>19.41060069444444</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15.29577471545948</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.104269069923596</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>42.15988952159219</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>38.52400876309931</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>39.22671348617134</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>37.74562057541144</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>36.40424339620785</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>34.29821379345348</v>
       </c>
     </row>
